--- a/testopgave.xlsx
+++ b/testopgave.xlsx
@@ -13,34 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Opgave1 æøå</t>
+    <t>faroese</t>
   </si>
   <si>
-    <t>Oplossing1 æøå</t>
+    <t>færøysk</t>
   </si>
   <si>
-    <t>Opgave2 æøå</t>
+    <t>man</t>
   </si>
   <si>
-    <t>Oplossing 2 æøå</t>
-  </si>
-  <si>
-    <t>Opgave3 æøå</t>
-  </si>
-  <si>
-    <t>Oplossing 3 æøå</t>
-  </si>
-  <si>
-    <t>Opgave4 æøå</t>
-  </si>
-  <si>
-    <t>Oplossing 4 æøå</t>
-  </si>
-  <si>
-    <t>Opgave5 æøå</t>
-  </si>
-  <si>
-    <t>Oplossing 5 æøå</t>
+    <t>homme</t>
   </si>
 </sst>
 </file>
@@ -54,15 +36,12 @@
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="2">
@@ -85,7 +64,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
+    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -124,30 +103,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c t="s" s="1" r="A3">
-        <v>4</v>
-      </c>
-      <c t="s" s="1" r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="1" r="A4">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="B4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="1" r="A5">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="B5">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/testopgave.xlsx
+++ b/testopgave.xlsx
@@ -13,16 +13,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>faroese</t>
+    <t>a</t>
   </si>
   <si>
-    <t>færøysk</t>
+    <t>b</t>
   </si>
   <si>
-    <t>man</t>
+    <t>c</t>
   </si>
   <si>
-    <t>homme</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -103,6 +121,30 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3">
+      <c t="s" s="1" r="A3">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="1" r="A4">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="1" r="A5">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="B5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
